--- a/public/storage/pruebas/files_up/conceptos6.xlsx
+++ b/public/storage/pruebas/files_up/conceptos6.xlsx
@@ -6686,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6727,7 +6727,7 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6768,7 +6768,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6850,7 +6850,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6891,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7014,7 +7014,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7055,7 +7055,7 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7137,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7219,7 +7219,7 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7260,7 +7260,7 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7301,7 +7301,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7342,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -7383,7 +7383,7 @@
         <v>6</v>
       </c>
       <c r="H19">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7424,7 +7424,7 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7465,7 +7465,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7506,7 +7506,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7547,7 +7547,7 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7629,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="H25">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7670,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -7711,7 +7711,7 @@
         <v>6</v>
       </c>
       <c r="H27">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -7793,7 +7793,7 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -7875,7 +7875,7 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -7916,7 +7916,7 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -7998,7 +7998,7 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -8039,7 +8039,7 @@
         <v>6</v>
       </c>
       <c r="H35">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8080,7 +8080,7 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8121,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8162,7 +8162,7 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8203,7 +8203,7 @@
         <v>6</v>
       </c>
       <c r="H39">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8244,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8285,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="H41">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -8326,7 +8326,7 @@
         <v>6</v>
       </c>
       <c r="H42">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8367,7 +8367,7 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8408,7 +8408,7 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8449,7 +8449,7 @@
         <v>3</v>
       </c>
       <c r="H45">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>3</v>
       </c>
       <c r="H46">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8525,7 +8525,7 @@
         <v>6</v>
       </c>
       <c r="H47">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8566,7 +8566,7 @@
         <v>6</v>
       </c>
       <c r="H48">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8607,7 +8607,7 @@
         <v>6</v>
       </c>
       <c r="H49">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8645,7 +8645,7 @@
         <v>6</v>
       </c>
       <c r="H50">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8683,7 +8683,7 @@
         <v>3</v>
       </c>
       <c r="H51">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>6</v>
       </c>
       <c r="H52">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -8765,7 +8765,7 @@
         <v>6</v>
       </c>
       <c r="H53">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -8803,7 +8803,7 @@
         <v>6</v>
       </c>
       <c r="H54">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>6</v>
       </c>
       <c r="H55">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -8885,7 +8885,7 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -8923,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -8964,7 +8964,7 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -9002,7 +9002,7 @@
         <v>6</v>
       </c>
       <c r="H59">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -9040,7 +9040,7 @@
         <v>6</v>
       </c>
       <c r="H60">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -9078,7 +9078,7 @@
         <v>6</v>
       </c>
       <c r="H61">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -9119,7 +9119,7 @@
         <v>6</v>
       </c>
       <c r="H62">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>6</v>
       </c>
       <c r="H63">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -9198,7 +9198,7 @@
         <v>6</v>
       </c>
       <c r="H64">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>21</v>
       </c>
       <c r="H65">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -9274,7 +9274,7 @@
         <v>21</v>
       </c>
       <c r="H66">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -9312,7 +9312,7 @@
         <v>21</v>
       </c>
       <c r="H67">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>21</v>
       </c>
       <c r="H68">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -9388,7 +9388,7 @@
         <v>21</v>
       </c>
       <c r="H69">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>21</v>
       </c>
       <c r="H70">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9464,7 +9464,7 @@
         <v>21</v>
       </c>
       <c r="H71">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -9502,7 +9502,7 @@
         <v>21</v>
       </c>
       <c r="H72">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -9543,7 +9543,7 @@
         <v>21</v>
       </c>
       <c r="H73">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -9584,7 +9584,7 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -9625,7 +9625,7 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -9663,7 +9663,7 @@
         <v>21</v>
       </c>
       <c r="H76">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -9701,7 +9701,7 @@
         <v>21</v>
       </c>
       <c r="H77">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -9742,7 +9742,7 @@
         <v>21</v>
       </c>
       <c r="H78">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -9783,7 +9783,7 @@
         <v>21</v>
       </c>
       <c r="H79">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -9824,7 +9824,7 @@
         <v>21</v>
       </c>
       <c r="H80">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -9865,7 +9865,7 @@
         <v>21</v>
       </c>
       <c r="H81">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -9906,7 +9906,7 @@
         <v>21</v>
       </c>
       <c r="H82">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -9947,7 +9947,7 @@
         <v>21</v>
       </c>
       <c r="H83">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>21</v>
       </c>
       <c r="H84">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -10026,7 +10026,7 @@
         <v>21</v>
       </c>
       <c r="H85">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -10067,7 +10067,7 @@
         <v>21</v>
       </c>
       <c r="H86">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -10108,7 +10108,7 @@
         <v>21</v>
       </c>
       <c r="H87">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -10149,7 +10149,7 @@
         <v>21</v>
       </c>
       <c r="H88">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -10190,7 +10190,7 @@
         <v>21</v>
       </c>
       <c r="H89">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10231,7 +10231,7 @@
         <v>21</v>
       </c>
       <c r="H90">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -10272,7 +10272,7 @@
         <v>21</v>
       </c>
       <c r="H91">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -10313,7 +10313,7 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10354,7 +10354,7 @@
         <v>21</v>
       </c>
       <c r="H93">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -10392,7 +10392,7 @@
         <v>21</v>
       </c>
       <c r="H94">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -10430,7 +10430,7 @@
         <v>21</v>
       </c>
       <c r="H95">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -10468,7 +10468,7 @@
         <v>21</v>
       </c>
       <c r="H96">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -10506,7 +10506,7 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -10585,7 +10585,7 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -10623,7 +10623,7 @@
         <v>4</v>
       </c>
       <c r="H100">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -10664,7 +10664,7 @@
         <v>21</v>
       </c>
       <c r="H101">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -10705,7 +10705,7 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -10743,7 +10743,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -10784,7 +10784,7 @@
         <v>21</v>
       </c>
       <c r="H104">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -10825,7 +10825,7 @@
         <v>21</v>
       </c>
       <c r="H105">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -10866,7 +10866,7 @@
         <v>21</v>
       </c>
       <c r="H106">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -10907,7 +10907,7 @@
         <v>2</v>
       </c>
       <c r="H107">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -10948,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         <v>21</v>
       </c>
       <c r="H109">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -11030,7 +11030,7 @@
         <v>21</v>
       </c>
       <c r="H110">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -11071,7 +11071,7 @@
         <v>21</v>
       </c>
       <c r="H111">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -11109,7 +11109,7 @@
         <v>21</v>
       </c>
       <c r="H112">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -11150,7 +11150,7 @@
         <v>21</v>
       </c>
       <c r="H113">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -11191,7 +11191,7 @@
         <v>21</v>
       </c>
       <c r="H114">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -11232,7 +11232,7 @@
         <v>21</v>
       </c>
       <c r="H115">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -11273,7 +11273,7 @@
         <v>21</v>
       </c>
       <c r="H116">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>21</v>
       </c>
       <c r="H117">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -11355,7 +11355,7 @@
         <v>21</v>
       </c>
       <c r="H118">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -11396,7 +11396,7 @@
         <v>21</v>
       </c>
       <c r="H119">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11437,7 +11437,7 @@
         <v>21</v>
       </c>
       <c r="H120">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11478,7 +11478,7 @@
         <v>21</v>
       </c>
       <c r="H121">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11519,7 +11519,7 @@
         <v>21</v>
       </c>
       <c r="H122">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11560,7 +11560,7 @@
         <v>21</v>
       </c>
       <c r="H123">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>21</v>
       </c>
       <c r="H124">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11639,7 +11639,7 @@
         <v>21</v>
       </c>
       <c r="H125">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -11680,7 +11680,7 @@
         <v>21</v>
       </c>
       <c r="H126">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11721,7 +11721,7 @@
         <v>21</v>
       </c>
       <c r="H127">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>21</v>
       </c>
       <c r="H128">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11803,7 +11803,7 @@
         <v>2</v>
       </c>
       <c r="H129">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11844,7 +11844,7 @@
         <v>21</v>
       </c>
       <c r="H130">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -11882,7 +11882,7 @@
         <v>21</v>
       </c>
       <c r="H131">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -11920,7 +11920,7 @@
         <v>21</v>
       </c>
       <c r="H132">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -11961,7 +11961,7 @@
         <v>21</v>
       </c>
       <c r="H133">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -12002,7 +12002,7 @@
         <v>21</v>
       </c>
       <c r="H134">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12040,7 +12040,7 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12081,7 +12081,7 @@
         <v>2</v>
       </c>
       <c r="H136">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12122,7 +12122,7 @@
         <v>2</v>
       </c>
       <c r="H137">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>21</v>
       </c>
       <c r="H138">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>21</v>
       </c>
       <c r="H139">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -12239,7 +12239,7 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -12280,7 +12280,7 @@
         <v>4</v>
       </c>
       <c r="H141">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -12321,7 +12321,7 @@
         <v>4</v>
       </c>
       <c r="H142">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -12362,7 +12362,7 @@
         <v>4</v>
       </c>
       <c r="H143">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>4</v>
       </c>
       <c r="H144">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -12444,7 +12444,7 @@
         <v>4</v>
       </c>
       <c r="H145">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -12485,7 +12485,7 @@
         <v>4</v>
       </c>
       <c r="H146">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -12523,7 +12523,7 @@
         <v>21</v>
       </c>
       <c r="H147">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -12561,7 +12561,7 @@
         <v>21</v>
       </c>
       <c r="H148">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -12602,7 +12602,7 @@
         <v>21</v>
       </c>
       <c r="H149">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -12643,7 +12643,7 @@
         <v>21</v>
       </c>
       <c r="H150">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -12684,7 +12684,7 @@
         <v>21</v>
       </c>
       <c r="H151">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -12722,7 +12722,7 @@
         <v>21</v>
       </c>
       <c r="H152">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -12763,7 +12763,7 @@
         <v>2</v>
       </c>
       <c r="H153">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -12804,7 +12804,7 @@
         <v>21</v>
       </c>
       <c r="H154">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>2</v>
       </c>
       <c r="H155">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -12883,7 +12883,7 @@
         <v>21</v>
       </c>
       <c r="H156">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -12924,7 +12924,7 @@
         <v>21</v>
       </c>
       <c r="H157">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -12965,7 +12965,7 @@
         <v>21</v>
       </c>
       <c r="H158">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -13003,7 +13003,7 @@
         <v>4</v>
       </c>
       <c r="H159">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -13044,7 +13044,7 @@
         <v>4</v>
       </c>
       <c r="H160">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -13085,7 +13085,7 @@
         <v>21</v>
       </c>
       <c r="H161">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -13126,7 +13126,7 @@
         <v>21</v>
       </c>
       <c r="H162">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -13167,7 +13167,7 @@
         <v>21</v>
       </c>
       <c r="H163">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -13208,7 +13208,7 @@
         <v>21</v>
       </c>
       <c r="H164">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -13249,7 +13249,7 @@
         <v>4</v>
       </c>
       <c r="H165">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -13290,7 +13290,7 @@
         <v>4</v>
       </c>
       <c r="H166">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -13331,7 +13331,7 @@
         <v>21</v>
       </c>
       <c r="H167">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -13372,7 +13372,7 @@
         <v>21</v>
       </c>
       <c r="H168">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -13413,7 +13413,7 @@
         <v>2</v>
       </c>
       <c r="H169">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -13451,7 +13451,7 @@
         <v>21</v>
       </c>
       <c r="H170">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>4</v>
       </c>
       <c r="H171">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -13530,7 +13530,7 @@
         <v>4</v>
       </c>
       <c r="H172">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -13568,7 +13568,7 @@
         <v>21</v>
       </c>
       <c r="H173">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -13609,7 +13609,7 @@
         <v>21</v>
       </c>
       <c r="H174">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -13650,7 +13650,7 @@
         <v>21</v>
       </c>
       <c r="H175">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -13691,7 +13691,7 @@
         <v>21</v>
       </c>
       <c r="H176">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -13732,7 +13732,7 @@
         <v>21</v>
       </c>
       <c r="H177">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -13770,7 +13770,7 @@
         <v>4</v>
       </c>
       <c r="H178">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -13811,7 +13811,7 @@
         <v>21</v>
       </c>
       <c r="H179">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -13852,7 +13852,7 @@
         <v>21</v>
       </c>
       <c r="H180">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -13893,7 +13893,7 @@
         <v>21</v>
       </c>
       <c r="H181">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -13934,7 +13934,7 @@
         <v>21</v>
       </c>
       <c r="H182">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -13975,7 +13975,7 @@
         <v>21</v>
       </c>
       <c r="H183">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -14016,7 +14016,7 @@
         <v>21</v>
       </c>
       <c r="H184">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>21</v>
       </c>
       <c r="H185">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -14092,7 +14092,7 @@
         <v>21</v>
       </c>
       <c r="H186">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -14130,7 +14130,7 @@
         <v>21</v>
       </c>
       <c r="H187">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -14168,7 +14168,7 @@
         <v>21</v>
       </c>
       <c r="H188">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -14206,7 +14206,7 @@
         <v>21</v>
       </c>
       <c r="H189">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -14247,7 +14247,7 @@
         <v>21</v>
       </c>
       <c r="H190">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -14288,7 +14288,7 @@
         <v>21</v>
       </c>
       <c r="H191">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -14326,7 +14326,7 @@
         <v>21</v>
       </c>
       <c r="H192">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -14364,7 +14364,7 @@
         <v>21</v>
       </c>
       <c r="H193">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -14405,7 +14405,7 @@
         <v>21</v>
       </c>
       <c r="H194">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -14443,7 +14443,7 @@
         <v>21</v>
       </c>
       <c r="H195">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -14484,7 +14484,7 @@
         <v>21</v>
       </c>
       <c r="H196">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -14525,7 +14525,7 @@
         <v>2</v>
       </c>
       <c r="H197">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -14563,7 +14563,7 @@
         <v>21</v>
       </c>
       <c r="H198">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>2</v>
       </c>
       <c r="H199">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -14642,7 +14642,7 @@
         <v>21</v>
       </c>
       <c r="H200">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -14680,7 +14680,7 @@
         <v>21</v>
       </c>
       <c r="H201">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -14718,7 +14718,7 @@
         <v>21</v>
       </c>
       <c r="H202">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -14759,7 +14759,7 @@
         <v>21</v>
       </c>
       <c r="H203">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -14797,7 +14797,7 @@
         <v>21</v>
       </c>
       <c r="H204">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -14835,7 +14835,7 @@
         <v>21</v>
       </c>
       <c r="H205">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -14876,7 +14876,7 @@
         <v>21</v>
       </c>
       <c r="H206">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -14917,7 +14917,7 @@
         <v>21</v>
       </c>
       <c r="H207">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -14958,7 +14958,7 @@
         <v>4</v>
       </c>
       <c r="H208">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -14996,7 +14996,7 @@
         <v>2</v>
       </c>
       <c r="H209">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -15037,7 +15037,7 @@
         <v>21</v>
       </c>
       <c r="H210">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -15078,7 +15078,7 @@
         <v>21</v>
       </c>
       <c r="H211">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -15119,7 +15119,7 @@
         <v>21</v>
       </c>
       <c r="H212">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -15160,7 +15160,7 @@
         <v>4</v>
       </c>
       <c r="H213">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -15201,7 +15201,7 @@
         <v>4</v>
       </c>
       <c r="H214">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -15242,7 +15242,7 @@
         <v>4</v>
       </c>
       <c r="H215">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -15283,7 +15283,7 @@
         <v>4</v>
       </c>
       <c r="H216">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -15324,7 +15324,7 @@
         <v>4</v>
       </c>
       <c r="H217">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -15365,7 +15365,7 @@
         <v>4</v>
       </c>
       <c r="H218">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -15406,7 +15406,7 @@
         <v>4</v>
       </c>
       <c r="H219">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -15444,7 +15444,7 @@
         <v>4</v>
       </c>
       <c r="H220">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -15485,7 +15485,7 @@
         <v>4</v>
       </c>
       <c r="H221">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -15526,7 +15526,7 @@
         <v>21</v>
       </c>
       <c r="H222">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -15564,7 +15564,7 @@
         <v>21</v>
       </c>
       <c r="H223">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -15602,7 +15602,7 @@
         <v>4</v>
       </c>
       <c r="H224">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -15643,7 +15643,7 @@
         <v>4</v>
       </c>
       <c r="H225">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -15684,7 +15684,7 @@
         <v>4</v>
       </c>
       <c r="H226">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -15725,7 +15725,7 @@
         <v>2</v>
       </c>
       <c r="H227">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -15766,7 +15766,7 @@
         <v>6</v>
       </c>
       <c r="H228">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -15807,7 +15807,7 @@
         <v>21</v>
       </c>
       <c r="H229">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -15845,7 +15845,7 @@
         <v>21</v>
       </c>
       <c r="H230">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -15886,7 +15886,7 @@
         <v>2</v>
       </c>
       <c r="H231">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -15927,7 +15927,7 @@
         <v>6</v>
       </c>
       <c r="H232">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -15968,7 +15968,7 @@
         <v>21</v>
       </c>
       <c r="H233">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -16009,7 +16009,7 @@
         <v>2</v>
       </c>
       <c r="H234">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -16050,7 +16050,7 @@
         <v>2</v>
       </c>
       <c r="H235">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -16091,7 +16091,7 @@
         <v>6</v>
       </c>
       <c r="H236">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -16132,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="H237">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -16170,7 +16170,7 @@
         <v>2</v>
       </c>
       <c r="H238">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -16211,7 +16211,7 @@
         <v>2</v>
       </c>
       <c r="H239">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -16252,7 +16252,7 @@
         <v>2</v>
       </c>
       <c r="H240">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -16293,7 +16293,7 @@
         <v>2</v>
       </c>
       <c r="H241">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -16334,7 +16334,7 @@
         <v>2</v>
       </c>
       <c r="H242">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -16372,7 +16372,7 @@
         <v>2</v>
       </c>
       <c r="H243">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -16413,7 +16413,7 @@
         <v>2</v>
       </c>
       <c r="H244">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -16454,7 +16454,7 @@
         <v>2</v>
       </c>
       <c r="H245">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="H246">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -16530,7 +16530,7 @@
         <v>2</v>
       </c>
       <c r="H247">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -16571,7 +16571,7 @@
         <v>2</v>
       </c>
       <c r="H248">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -16612,7 +16612,7 @@
         <v>5</v>
       </c>
       <c r="H249">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -16650,7 +16650,7 @@
         <v>21</v>
       </c>
       <c r="H250">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -16691,7 +16691,7 @@
         <v>21</v>
       </c>
       <c r="H251">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -16729,7 +16729,7 @@
         <v>21</v>
       </c>
       <c r="H252">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -16767,7 +16767,7 @@
         <v>21</v>
       </c>
       <c r="H253">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -16808,7 +16808,7 @@
         <v>5</v>
       </c>
       <c r="H254">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -16849,7 +16849,7 @@
         <v>5</v>
       </c>
       <c r="H255">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -16887,7 +16887,7 @@
         <v>5</v>
       </c>
       <c r="H256">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -16928,7 +16928,7 @@
         <v>5</v>
       </c>
       <c r="H257">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -16969,7 +16969,7 @@
         <v>5</v>
       </c>
       <c r="H258">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -17007,7 +17007,7 @@
         <v>5</v>
       </c>
       <c r="H259">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -17048,7 +17048,7 @@
         <v>5</v>
       </c>
       <c r="H260">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -17086,7 +17086,7 @@
         <v>21</v>
       </c>
       <c r="H261">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -17127,7 +17127,7 @@
         <v>21</v>
       </c>
       <c r="H262">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -17165,7 +17165,7 @@
         <v>21</v>
       </c>
       <c r="H263">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -17206,7 +17206,7 @@
         <v>5</v>
       </c>
       <c r="H264">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>21</v>
       </c>
       <c r="H265">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -17288,7 +17288,7 @@
         <v>21</v>
       </c>
       <c r="H266">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -17329,7 +17329,7 @@
         <v>21</v>
       </c>
       <c r="H267">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -17367,7 +17367,7 @@
         <v>21</v>
       </c>
       <c r="H268">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -17405,7 +17405,7 @@
         <v>5</v>
       </c>
       <c r="H269">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -17446,7 +17446,7 @@
         <v>21</v>
       </c>
       <c r="H270">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -17484,7 +17484,7 @@
         <v>21</v>
       </c>
       <c r="H271">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -17522,7 +17522,7 @@
         <v>21</v>
       </c>
       <c r="H272">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -17563,7 +17563,7 @@
         <v>21</v>
       </c>
       <c r="H273">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -17604,7 +17604,7 @@
         <v>21</v>
       </c>
       <c r="H274">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I274">
         <v>1</v>
@@ -17645,7 +17645,7 @@
         <v>5</v>
       </c>
       <c r="H275">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -17686,7 +17686,7 @@
         <v>5</v>
       </c>
       <c r="H276">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -17727,7 +17727,7 @@
         <v>5</v>
       </c>
       <c r="H277">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -17765,7 +17765,7 @@
         <v>5</v>
       </c>
       <c r="H278">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -17806,7 +17806,7 @@
         <v>5</v>
       </c>
       <c r="H279">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I279">
         <v>1</v>
@@ -17847,7 +17847,7 @@
         <v>21</v>
       </c>
       <c r="H280">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I280">
         <v>1</v>
@@ -17888,7 +17888,7 @@
         <v>21</v>
       </c>
       <c r="H281">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -17929,7 +17929,7 @@
         <v>21</v>
       </c>
       <c r="H282">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -17967,7 +17967,7 @@
         <v>21</v>
       </c>
       <c r="H283">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -18005,7 +18005,7 @@
         <v>21</v>
       </c>
       <c r="H284">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I284">
         <v>1</v>
@@ -18046,7 +18046,7 @@
         <v>21</v>
       </c>
       <c r="H285">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I285">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>21</v>
       </c>
       <c r="H286">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I286">
         <v>1</v>
@@ -18128,7 +18128,7 @@
         <v>21</v>
       </c>
       <c r="H287">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -18166,7 +18166,7 @@
         <v>21</v>
       </c>
       <c r="H288">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I288">
         <v>1</v>
@@ -18207,7 +18207,7 @@
         <v>5</v>
       </c>
       <c r="H289">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I289">
         <v>1</v>
@@ -18248,7 +18248,7 @@
         <v>21</v>
       </c>
       <c r="H290">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I290">
         <v>1</v>
@@ -18286,7 +18286,7 @@
         <v>21</v>
       </c>
       <c r="H291">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -18327,7 +18327,7 @@
         <v>6</v>
       </c>
       <c r="H292">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -18368,7 +18368,7 @@
         <v>4</v>
       </c>
       <c r="H293">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -18406,7 +18406,7 @@
         <v>4</v>
       </c>
       <c r="H294">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -18447,7 +18447,7 @@
         <v>4</v>
       </c>
       <c r="H295">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -18488,7 +18488,7 @@
         <v>4</v>
       </c>
       <c r="H296">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I296">
         <v>1</v>
@@ -18529,7 +18529,7 @@
         <v>4</v>
       </c>
       <c r="H297">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I297">
         <v>1</v>
@@ -18567,7 +18567,7 @@
         <v>4</v>
       </c>
       <c r="H298">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -18608,7 +18608,7 @@
         <v>4</v>
       </c>
       <c r="H299">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -18649,7 +18649,7 @@
         <v>4</v>
       </c>
       <c r="H300">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I300">
         <v>1</v>
@@ -18690,7 +18690,7 @@
         <v>4</v>
       </c>
       <c r="H301">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -18731,7 +18731,7 @@
         <v>4</v>
       </c>
       <c r="H302">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I302">
         <v>1</v>
@@ -18772,7 +18772,7 @@
         <v>4</v>
       </c>
       <c r="H303">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -18813,7 +18813,7 @@
         <v>4</v>
       </c>
       <c r="H304">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -18854,7 +18854,7 @@
         <v>4</v>
       </c>
       <c r="H305">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I305">
         <v>1</v>
@@ -18892,7 +18892,7 @@
         <v>4</v>
       </c>
       <c r="H306">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I306">
         <v>1</v>
@@ -18930,7 +18930,7 @@
         <v>4</v>
       </c>
       <c r="H307">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -18971,7 +18971,7 @@
         <v>4</v>
       </c>
       <c r="H308">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -19012,7 +19012,7 @@
         <v>4</v>
       </c>
       <c r="H309">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         <v>5</v>
       </c>
       <c r="H310">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I310">
         <v>1</v>
@@ -19094,7 +19094,7 @@
         <v>4</v>
       </c>
       <c r="H311">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -19132,7 +19132,7 @@
         <v>4</v>
       </c>
       <c r="H312">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I312">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>4</v>
       </c>
       <c r="H313">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I313">
         <v>1</v>
@@ -19211,7 +19211,7 @@
         <v>4</v>
       </c>
       <c r="H314">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I314">
         <v>1</v>
@@ -19252,7 +19252,7 @@
         <v>4</v>
       </c>
       <c r="H315">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I315">
         <v>1</v>
@@ -19293,7 +19293,7 @@
         <v>4</v>
       </c>
       <c r="H316">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I316">
         <v>1</v>
@@ -19334,7 +19334,7 @@
         <v>4</v>
       </c>
       <c r="H317">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I317">
         <v>1</v>
@@ -19375,7 +19375,7 @@
         <v>4</v>
       </c>
       <c r="H318">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I318">
         <v>1</v>
@@ -19416,7 +19416,7 @@
         <v>4</v>
       </c>
       <c r="H319">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I319">
         <v>1</v>
@@ -19457,7 +19457,7 @@
         <v>4</v>
       </c>
       <c r="H320">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I320">
         <v>1</v>
@@ -19498,7 +19498,7 @@
         <v>21</v>
       </c>
       <c r="H321">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I321">
         <v>1</v>
@@ -19539,7 +19539,7 @@
         <v>4</v>
       </c>
       <c r="H322">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -19580,7 +19580,7 @@
         <v>4</v>
       </c>
       <c r="H323">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -19618,7 +19618,7 @@
         <v>4</v>
       </c>
       <c r="H324">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I324">
         <v>1</v>
@@ -19659,7 +19659,7 @@
         <v>4</v>
       </c>
       <c r="H325">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I325">
         <v>1</v>
@@ -19697,7 +19697,7 @@
         <v>21</v>
       </c>
       <c r="H326">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I326">
         <v>1</v>
@@ -19738,7 +19738,7 @@
         <v>21</v>
       </c>
       <c r="H327">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I327">
         <v>1</v>
@@ -19779,7 +19779,7 @@
         <v>21</v>
       </c>
       <c r="H328">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I328">
         <v>1</v>
@@ -19820,7 +19820,7 @@
         <v>4</v>
       </c>
       <c r="H329">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -19861,7 +19861,7 @@
         <v>4</v>
       </c>
       <c r="H330">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I330">
         <v>1</v>
@@ -19899,7 +19899,7 @@
         <v>4</v>
       </c>
       <c r="H331">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I331">
         <v>1</v>
@@ -19937,7 +19937,7 @@
         <v>21</v>
       </c>
       <c r="H332">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I332">
         <v>1</v>
@@ -20458,7 +20458,7 @@
         <v>21</v>
       </c>
       <c r="H345">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I345">
         <v>1</v>
@@ -20651,7 +20651,7 @@
         <v>21</v>
       </c>
       <c r="H350">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I350">
         <v>1</v>
@@ -20689,7 +20689,7 @@
         <v>21</v>
       </c>
       <c r="H351">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I351">
         <v>1</v>
@@ -20730,7 +20730,7 @@
         <v>5</v>
       </c>
       <c r="H352">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I352">
         <v>1</v>
@@ -20771,7 +20771,7 @@
         <v>5</v>
       </c>
       <c r="H353">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I353">
         <v>1</v>
@@ -20812,7 +20812,7 @@
         <v>5</v>
       </c>
       <c r="H354">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I354">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         <v>5</v>
       </c>
       <c r="H355">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I355">
         <v>1</v>
@@ -21520,7 +21520,7 @@
         <v>21</v>
       </c>
       <c r="H372">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I372">
         <v>1</v>
@@ -21684,7 +21684,7 @@
         <v>21</v>
       </c>
       <c r="H376">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -21725,7 +21725,7 @@
         <v>21</v>
       </c>
       <c r="H377">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I377">
         <v>1</v>
@@ -21807,7 +21807,7 @@
         <v>21</v>
       </c>
       <c r="H379">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -21848,7 +21848,7 @@
         <v>21</v>
       </c>
       <c r="H380">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I380">
         <v>1</v>
@@ -21889,7 +21889,7 @@
         <v>21</v>
       </c>
       <c r="H381">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -21930,7 +21930,7 @@
         <v>21</v>
       </c>
       <c r="H382">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I382">
         <v>1</v>
@@ -21968,7 +21968,7 @@
         <v>21</v>
       </c>
       <c r="H383">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I383">
         <v>1</v>
@@ -22009,7 +22009,7 @@
         <v>21</v>
       </c>
       <c r="H384">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I384">
         <v>1</v>
@@ -22050,7 +22050,7 @@
         <v>21</v>
       </c>
       <c r="H385">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I385">
         <v>1</v>
@@ -22091,7 +22091,7 @@
         <v>21</v>
       </c>
       <c r="H386">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I386">
         <v>1</v>
@@ -22129,7 +22129,7 @@
         <v>21</v>
       </c>
       <c r="H387">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I387">
         <v>1</v>
@@ -22167,7 +22167,7 @@
         <v>21</v>
       </c>
       <c r="H388">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I388">
         <v>1</v>
@@ -22205,7 +22205,7 @@
         <v>21</v>
       </c>
       <c r="H389">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I389">
         <v>1</v>
@@ -22243,7 +22243,7 @@
         <v>21</v>
       </c>
       <c r="H390">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I390">
         <v>1</v>
@@ -22284,7 +22284,7 @@
         <v>21</v>
       </c>
       <c r="H391">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I391">
         <v>1</v>
@@ -22325,7 +22325,7 @@
         <v>21</v>
       </c>
       <c r="H392">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I392">
         <v>1</v>
@@ -22366,7 +22366,7 @@
         <v>21</v>
       </c>
       <c r="H393">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I393">
         <v>1</v>
@@ -22407,7 +22407,7 @@
         <v>21</v>
       </c>
       <c r="H394">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I394">
         <v>1</v>
@@ -22448,7 +22448,7 @@
         <v>21</v>
       </c>
       <c r="H395">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I395">
         <v>1</v>
@@ -22486,7 +22486,7 @@
         <v>21</v>
       </c>
       <c r="H396">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I396">
         <v>1</v>
@@ -22527,7 +22527,7 @@
         <v>21</v>
       </c>
       <c r="H397">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I397">
         <v>1</v>
@@ -22568,7 +22568,7 @@
         <v>21</v>
       </c>
       <c r="H398">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I398">
         <v>1</v>
@@ -22606,7 +22606,7 @@
         <v>21</v>
       </c>
       <c r="H399">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I399">
         <v>1</v>
@@ -22647,7 +22647,7 @@
         <v>21</v>
       </c>
       <c r="H400">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I400">
         <v>1</v>
@@ -22688,7 +22688,7 @@
         <v>21</v>
       </c>
       <c r="H401">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I401">
         <v>1</v>
@@ -22729,7 +22729,7 @@
         <v>21</v>
       </c>
       <c r="H402">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I402">
         <v>1</v>
@@ -22770,7 +22770,7 @@
         <v>21</v>
       </c>
       <c r="H403">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I403">
         <v>1</v>
@@ -22811,7 +22811,7 @@
         <v>21</v>
       </c>
       <c r="H404">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I404">
         <v>1</v>
@@ -22852,7 +22852,7 @@
         <v>21</v>
       </c>
       <c r="H405">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I405">
         <v>1</v>
@@ -22890,7 +22890,7 @@
         <v>21</v>
       </c>
       <c r="H406">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I406">
         <v>1</v>
@@ -22928,7 +22928,7 @@
         <v>21</v>
       </c>
       <c r="H407">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I407">
         <v>1</v>
@@ -22966,7 +22966,7 @@
         <v>21</v>
       </c>
       <c r="H408">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I408">
         <v>1</v>
@@ -23007,7 +23007,7 @@
         <v>21</v>
       </c>
       <c r="H409">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I409">
         <v>1</v>
@@ -23048,7 +23048,7 @@
         <v>21</v>
       </c>
       <c r="H410">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I410">
         <v>1</v>
@@ -23089,7 +23089,7 @@
         <v>21</v>
       </c>
       <c r="H411">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I411">
         <v>1</v>
@@ -23127,7 +23127,7 @@
         <v>21</v>
       </c>
       <c r="H412">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I412">
         <v>1</v>
@@ -23165,7 +23165,7 @@
         <v>21</v>
       </c>
       <c r="H413">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I413">
         <v>1</v>
@@ -23206,7 +23206,7 @@
         <v>21</v>
       </c>
       <c r="H414">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I414">
         <v>1</v>
@@ -23244,7 +23244,7 @@
         <v>21</v>
       </c>
       <c r="H415">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I415">
         <v>1</v>
@@ -23282,7 +23282,7 @@
         <v>21</v>
       </c>
       <c r="H416">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I416">
         <v>1</v>
@@ -23323,7 +23323,7 @@
         <v>21</v>
       </c>
       <c r="H417">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I417">
         <v>1</v>
@@ -23364,7 +23364,7 @@
         <v>21</v>
       </c>
       <c r="H418">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I418">
         <v>1</v>
@@ -23405,7 +23405,7 @@
         <v>21</v>
       </c>
       <c r="H419">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I419">
         <v>1</v>
@@ -25273,7 +25273,7 @@
         <v>21</v>
       </c>
       <c r="H465">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I465">
         <v>1</v>
@@ -25314,7 +25314,7 @@
         <v>21</v>
       </c>
       <c r="H466">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I466">
         <v>1</v>
@@ -25352,7 +25352,7 @@
         <v>21</v>
       </c>
       <c r="H467">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I467">
         <v>1</v>
@@ -25390,7 +25390,7 @@
         <v>21</v>
       </c>
       <c r="H468">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I468">
         <v>1</v>
@@ -25627,7 +25627,7 @@
         <v>21</v>
       </c>
       <c r="H474">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I474">
         <v>1</v>
@@ -25665,7 +25665,7 @@
         <v>8</v>
       </c>
       <c r="H475">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I475">
         <v>1</v>
@@ -25703,7 +25703,7 @@
         <v>8</v>
       </c>
       <c r="H476">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I476">
         <v>1</v>
@@ -25744,7 +25744,7 @@
         <v>8</v>
       </c>
       <c r="H477">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I477">
         <v>1</v>
@@ -25782,7 +25782,7 @@
         <v>8</v>
       </c>
       <c r="H478">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I478">
         <v>1</v>
@@ -25820,7 +25820,7 @@
         <v>8</v>
       </c>
       <c r="H479">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I479">
         <v>1</v>
@@ -25858,7 +25858,7 @@
         <v>8</v>
       </c>
       <c r="H480">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I480">
         <v>1</v>
@@ -25896,7 +25896,7 @@
         <v>8</v>
       </c>
       <c r="H481">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I481">
         <v>1</v>
@@ -25937,7 +25937,7 @@
         <v>8</v>
       </c>
       <c r="H482">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I482">
         <v>1</v>
@@ -25975,7 +25975,7 @@
         <v>8</v>
       </c>
       <c r="H483">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I483">
         <v>1</v>
@@ -26013,7 +26013,7 @@
         <v>8</v>
       </c>
       <c r="H484">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I484">
         <v>1</v>
@@ -26051,7 +26051,7 @@
         <v>8</v>
       </c>
       <c r="H485">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I485">
         <v>1</v>
@@ -26092,7 +26092,7 @@
         <v>8</v>
       </c>
       <c r="H486">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I486">
         <v>1</v>
@@ -26130,7 +26130,7 @@
         <v>8</v>
       </c>
       <c r="H487">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I487">
         <v>1</v>
@@ -26168,7 +26168,7 @@
         <v>8</v>
       </c>
       <c r="H488">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I488">
         <v>1</v>
@@ -26206,7 +26206,7 @@
         <v>8</v>
       </c>
       <c r="H489">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I489">
         <v>1</v>
@@ -26247,7 +26247,7 @@
         <v>8</v>
       </c>
       <c r="H490">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I490">
         <v>1</v>
@@ -26285,7 +26285,7 @@
         <v>21</v>
       </c>
       <c r="H491">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -26645,7 +26645,7 @@
         <v>21</v>
       </c>
       <c r="H500">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I500">
         <v>1</v>
@@ -26686,7 +26686,7 @@
         <v>10</v>
       </c>
       <c r="H501">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I501">
         <v>1</v>
@@ -26727,7 +26727,7 @@
         <v>10</v>
       </c>
       <c r="H502">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I502">
         <v>1</v>
@@ -26768,7 +26768,7 @@
         <v>21</v>
       </c>
       <c r="H503">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I503">
         <v>1</v>
@@ -27590,7 +27590,7 @@
         <v>10</v>
       </c>
       <c r="H524">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I524">
         <v>1</v>
@@ -27631,7 +27631,7 @@
         <v>10</v>
       </c>
       <c r="H525">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I525">
         <v>1</v>
@@ -27672,7 +27672,7 @@
         <v>6</v>
       </c>
       <c r="H526">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I526">
         <v>1</v>
@@ -27836,7 +27836,7 @@
         <v>10</v>
       </c>
       <c r="H530">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I530">
         <v>1</v>
@@ -27877,7 +27877,7 @@
         <v>6</v>
       </c>
       <c r="H531">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I531">
         <v>1</v>
@@ -27915,7 +27915,7 @@
         <v>6</v>
       </c>
       <c r="H532">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I532">
         <v>1</v>
@@ -27956,7 +27956,7 @@
         <v>6</v>
       </c>
       <c r="H533">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I533">
         <v>1</v>
@@ -27997,7 +27997,7 @@
         <v>10</v>
       </c>
       <c r="H534">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I534">
         <v>1</v>
@@ -28038,7 +28038,7 @@
         <v>10</v>
       </c>
       <c r="H535">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I535">
         <v>1</v>
@@ -28079,7 +28079,7 @@
         <v>10</v>
       </c>
       <c r="H536">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I536">
         <v>1</v>
@@ -28319,7 +28319,7 @@
         <v>6</v>
       </c>
       <c r="H542">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I542">
         <v>1</v>
@@ -28357,7 +28357,7 @@
         <v>6</v>
       </c>
       <c r="H543">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I543">
         <v>1</v>
@@ -29326,7 +29326,7 @@
         <v>6</v>
       </c>
       <c r="H567">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I567">
         <v>1</v>
@@ -29367,7 +29367,7 @@
         <v>6</v>
       </c>
       <c r="H568">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I568">
         <v>1</v>
@@ -29408,7 +29408,7 @@
         <v>6</v>
       </c>
       <c r="H569">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I569">
         <v>1</v>
@@ -29446,7 +29446,7 @@
         <v>6</v>
       </c>
       <c r="H570">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I570">
         <v>1</v>
@@ -29487,7 +29487,7 @@
         <v>6</v>
       </c>
       <c r="H571">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I571">
         <v>1</v>
@@ -29528,7 +29528,7 @@
         <v>6</v>
       </c>
       <c r="H572">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I572">
         <v>1</v>
@@ -29569,7 +29569,7 @@
         <v>6</v>
       </c>
       <c r="H573">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I573">
         <v>1</v>
@@ -29607,7 +29607,7 @@
         <v>6</v>
       </c>
       <c r="H574">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I574">
         <v>1</v>
@@ -29645,7 +29645,7 @@
         <v>6</v>
       </c>
       <c r="H575">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I575">
         <v>1</v>
@@ -29683,7 +29683,7 @@
         <v>6</v>
       </c>
       <c r="H576">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I576">
         <v>1</v>
@@ -29724,7 +29724,7 @@
         <v>6</v>
       </c>
       <c r="H577">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I577">
         <v>1</v>
@@ -29762,7 +29762,7 @@
         <v>6</v>
       </c>
       <c r="H578">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I578">
         <v>1</v>
@@ -29800,7 +29800,7 @@
         <v>6</v>
       </c>
       <c r="H579">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I579">
         <v>1</v>
@@ -29838,7 +29838,7 @@
         <v>6</v>
       </c>
       <c r="H580">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I580">
         <v>1</v>
@@ -29879,7 +29879,7 @@
         <v>6</v>
       </c>
       <c r="H581">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I581">
         <v>1</v>
@@ -29920,7 +29920,7 @@
         <v>6</v>
       </c>
       <c r="H582">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I582">
         <v>1</v>
@@ -29958,7 +29958,7 @@
         <v>6</v>
       </c>
       <c r="H583">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I583">
         <v>1</v>
@@ -29999,7 +29999,7 @@
         <v>6</v>
       </c>
       <c r="H584">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I584">
         <v>1</v>
@@ -30037,7 +30037,7 @@
         <v>6</v>
       </c>
       <c r="H585">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I585">
         <v>1</v>
@@ -30078,7 +30078,7 @@
         <v>6</v>
       </c>
       <c r="H586">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I586">
         <v>1</v>
@@ -30119,7 +30119,7 @@
         <v>6</v>
       </c>
       <c r="H587">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I587">
         <v>1</v>
@@ -30160,7 +30160,7 @@
         <v>6</v>
       </c>
       <c r="H588">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I588">
         <v>1</v>
@@ -30198,7 +30198,7 @@
         <v>6</v>
       </c>
       <c r="H589">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I589">
         <v>1</v>
@@ -30239,7 +30239,7 @@
         <v>9</v>
       </c>
       <c r="H590">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I590">
         <v>1</v>
@@ -30280,7 +30280,7 @@
         <v>9</v>
       </c>
       <c r="H591">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I591">
         <v>1</v>
@@ -30403,7 +30403,7 @@
         <v>9</v>
       </c>
       <c r="H594">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I594">
         <v>1</v>
@@ -30441,7 +30441,7 @@
         <v>9</v>
       </c>
       <c r="H595">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I595">
         <v>1</v>
@@ -30482,7 +30482,7 @@
         <v>9</v>
       </c>
       <c r="H596">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I596">
         <v>1</v>
@@ -30523,7 +30523,7 @@
         <v>9</v>
       </c>
       <c r="H597">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I597">
         <v>1</v>
@@ -30564,7 +30564,7 @@
         <v>9</v>
       </c>
       <c r="H598">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I598">
         <v>1</v>
@@ -30602,7 +30602,7 @@
         <v>9</v>
       </c>
       <c r="H599">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I599">
         <v>1</v>
@@ -30640,7 +30640,7 @@
         <v>9</v>
       </c>
       <c r="H600">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I600">
         <v>1</v>
@@ -30678,7 +30678,7 @@
         <v>9</v>
       </c>
       <c r="H601">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I601">
         <v>1</v>
@@ -30719,7 +30719,7 @@
         <v>9</v>
       </c>
       <c r="H602">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I602">
         <v>1</v>
@@ -30757,7 +30757,7 @@
         <v>9</v>
       </c>
       <c r="H603">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I603">
         <v>1</v>
@@ -30798,7 +30798,7 @@
         <v>9</v>
       </c>
       <c r="H604">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I604">
         <v>1</v>
@@ -30836,7 +30836,7 @@
         <v>9</v>
       </c>
       <c r="H605">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I605">
         <v>1</v>
@@ -30874,7 +30874,7 @@
         <v>9</v>
       </c>
       <c r="H606">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I606">
         <v>1</v>
@@ -30915,7 +30915,7 @@
         <v>9</v>
       </c>
       <c r="H607">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I607">
         <v>1</v>
@@ -30956,7 +30956,7 @@
         <v>9</v>
       </c>
       <c r="H608">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I608">
         <v>1</v>
@@ -30997,7 +30997,7 @@
         <v>9</v>
       </c>
       <c r="H609">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I609">
         <v>1</v>
@@ -31038,7 +31038,7 @@
         <v>9</v>
       </c>
       <c r="H610">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I610">
         <v>1</v>
@@ -31076,7 +31076,7 @@
         <v>9</v>
       </c>
       <c r="H611">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I611">
         <v>1</v>
@@ -31117,7 +31117,7 @@
         <v>9</v>
       </c>
       <c r="H612">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I612">
         <v>1</v>
@@ -31155,7 +31155,7 @@
         <v>9</v>
       </c>
       <c r="H613">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I613">
         <v>1</v>
@@ -31196,7 +31196,7 @@
         <v>9</v>
       </c>
       <c r="H614">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I614">
         <v>1</v>
@@ -31234,7 +31234,7 @@
         <v>9</v>
       </c>
       <c r="H615">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I615">
         <v>1</v>
@@ -31272,7 +31272,7 @@
         <v>9</v>
       </c>
       <c r="H616">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I616">
         <v>1</v>
@@ -31313,7 +31313,7 @@
         <v>10</v>
       </c>
       <c r="H617">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I617">
         <v>1</v>
@@ -31351,7 +31351,7 @@
         <v>9</v>
       </c>
       <c r="H618">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I618">
         <v>1</v>
@@ -31392,7 +31392,7 @@
         <v>9</v>
       </c>
       <c r="H619">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I619">
         <v>1</v>
@@ -31430,7 +31430,7 @@
         <v>9</v>
       </c>
       <c r="H620">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I620">
         <v>1</v>
@@ -31471,7 +31471,7 @@
         <v>9</v>
       </c>
       <c r="H621">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I621">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         <v>9</v>
       </c>
       <c r="H622">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I622">
         <v>1</v>
@@ -31550,7 +31550,7 @@
         <v>9</v>
       </c>
       <c r="H623">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I623">
         <v>1</v>
@@ -31591,7 +31591,7 @@
         <v>9</v>
       </c>
       <c r="H624">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I624">
         <v>1</v>
@@ -31632,7 +31632,7 @@
         <v>9</v>
       </c>
       <c r="H625">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I625">
         <v>1</v>
@@ -31673,7 +31673,7 @@
         <v>9</v>
       </c>
       <c r="H626">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I626">
         <v>1</v>
@@ -31714,7 +31714,7 @@
         <v>9</v>
       </c>
       <c r="H627">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I627">
         <v>1</v>
@@ -31755,7 +31755,7 @@
         <v>9</v>
       </c>
       <c r="H628">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I628">
         <v>1</v>
@@ -31796,7 +31796,7 @@
         <v>9</v>
       </c>
       <c r="H629">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I629">
         <v>1</v>
@@ -31837,7 +31837,7 @@
         <v>9</v>
       </c>
       <c r="H630">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I630">
         <v>1</v>
@@ -31957,7 +31957,7 @@
         <v>10</v>
       </c>
       <c r="H633">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I633">
         <v>1</v>
@@ -31998,7 +31998,7 @@
         <v>10</v>
       </c>
       <c r="H634">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I634">
         <v>1</v>
@@ -32039,7 +32039,7 @@
         <v>10</v>
       </c>
       <c r="H635">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I635">
         <v>1</v>
@@ -32077,7 +32077,7 @@
         <v>10</v>
       </c>
       <c r="H636">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I636">
         <v>1</v>
@@ -32115,7 +32115,7 @@
         <v>10</v>
       </c>
       <c r="H637">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I637">
         <v>1</v>
@@ -32153,7 +32153,7 @@
         <v>10</v>
       </c>
       <c r="H638">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I638">
         <v>1</v>
@@ -32191,7 +32191,7 @@
         <v>10</v>
       </c>
       <c r="H639">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I639">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         <v>10</v>
       </c>
       <c r="H640">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I640">
         <v>1</v>
@@ -32267,7 +32267,7 @@
         <v>10</v>
       </c>
       <c r="H641">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -32308,7 +32308,7 @@
         <v>10</v>
       </c>
       <c r="H642">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -32346,7 +32346,7 @@
         <v>10</v>
       </c>
       <c r="H643">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I643">
         <v>1</v>
@@ -32387,7 +32387,7 @@
         <v>10</v>
       </c>
       <c r="H644">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I644">
         <v>1</v>
@@ -32753,7 +32753,7 @@
         <v>10</v>
       </c>
       <c r="H653">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I653">
         <v>1</v>
@@ -32791,7 +32791,7 @@
         <v>10</v>
       </c>
       <c r="H654">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I654">
         <v>1</v>
@@ -32832,7 +32832,7 @@
         <v>10</v>
       </c>
       <c r="H655">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I655">
         <v>1</v>
@@ -32870,7 +32870,7 @@
         <v>10</v>
       </c>
       <c r="H656">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I656">
         <v>1</v>
@@ -32908,7 +32908,7 @@
         <v>10</v>
       </c>
       <c r="H657">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I657">
         <v>1</v>
@@ -32946,7 +32946,7 @@
         <v>10</v>
       </c>
       <c r="H658">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I658">
         <v>1</v>
@@ -32987,7 +32987,7 @@
         <v>5</v>
       </c>
       <c r="H659">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I659">
         <v>1</v>
@@ -33028,7 +33028,7 @@
         <v>5</v>
       </c>
       <c r="H660">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I660">
         <v>1</v>
@@ -33066,7 +33066,7 @@
         <v>5</v>
       </c>
       <c r="H661">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I661">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>10</v>
       </c>
       <c r="H662">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I662">
         <v>1</v>
@@ -33148,7 +33148,7 @@
         <v>10</v>
       </c>
       <c r="H663">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I663">
         <v>1</v>
@@ -33189,7 +33189,7 @@
         <v>10</v>
       </c>
       <c r="H664">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I664">
         <v>1</v>
@@ -33227,7 +33227,7 @@
         <v>5</v>
       </c>
       <c r="H665">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I665">
         <v>1</v>
@@ -33268,7 +33268,7 @@
         <v>5</v>
       </c>
       <c r="H666">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I666">
         <v>1</v>
@@ -33306,7 +33306,7 @@
         <v>10</v>
       </c>
       <c r="H667">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -33347,7 +33347,7 @@
         <v>10</v>
       </c>
       <c r="H668">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -33388,7 +33388,7 @@
         <v>10</v>
       </c>
       <c r="H669">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I669">
         <v>1</v>
@@ -33429,7 +33429,7 @@
         <v>10</v>
       </c>
       <c r="H670">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I670">
         <v>1</v>
@@ -33467,7 +33467,7 @@
         <v>10</v>
       </c>
       <c r="H671">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I671">
         <v>1</v>
@@ -33505,7 +33505,7 @@
         <v>10</v>
       </c>
       <c r="H672">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I672">
         <v>1</v>
@@ -33546,7 +33546,7 @@
         <v>10</v>
       </c>
       <c r="H673">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I673">
         <v>1</v>
@@ -33587,7 +33587,7 @@
         <v>10</v>
       </c>
       <c r="H674">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I674">
         <v>1</v>
@@ -33628,7 +33628,7 @@
         <v>10</v>
       </c>
       <c r="H675">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I675">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         <v>10</v>
       </c>
       <c r="H676">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I676">
         <v>1</v>
@@ -33710,7 +33710,7 @@
         <v>10</v>
       </c>
       <c r="H677">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I677">
         <v>1</v>
@@ -33751,7 +33751,7 @@
         <v>10</v>
       </c>
       <c r="H678">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I678">
         <v>1</v>
@@ -33792,7 +33792,7 @@
         <v>10</v>
       </c>
       <c r="H679">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -33833,7 +33833,7 @@
         <v>10</v>
       </c>
       <c r="H680">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I680">
         <v>1</v>
@@ -33871,7 +33871,7 @@
         <v>10</v>
       </c>
       <c r="H681">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I681">
         <v>1</v>
@@ -33909,7 +33909,7 @@
         <v>10</v>
       </c>
       <c r="H682">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I682">
         <v>1</v>
@@ -33950,7 +33950,7 @@
         <v>10</v>
       </c>
       <c r="H683">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I683">
         <v>1</v>
@@ -33988,7 +33988,7 @@
         <v>10</v>
       </c>
       <c r="H684">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I684">
         <v>1</v>
@@ -34026,7 +34026,7 @@
         <v>10</v>
       </c>
       <c r="H685">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I685">
         <v>1</v>
@@ -34064,7 +34064,7 @@
         <v>10</v>
       </c>
       <c r="H686">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I686">
         <v>1</v>
@@ -34102,7 +34102,7 @@
         <v>10</v>
       </c>
       <c r="H687">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I687">
         <v>1</v>
@@ -34140,7 +34140,7 @@
         <v>10</v>
       </c>
       <c r="H688">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I688">
         <v>1</v>
@@ -34181,7 +34181,7 @@
         <v>10</v>
       </c>
       <c r="H689">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I689">
         <v>1</v>
@@ -34222,7 +34222,7 @@
         <v>10</v>
       </c>
       <c r="H690">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I690">
         <v>1</v>
@@ -34263,7 +34263,7 @@
         <v>10</v>
       </c>
       <c r="H691">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I691">
         <v>1</v>
@@ -34301,7 +34301,7 @@
         <v>10</v>
       </c>
       <c r="H692">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I692">
         <v>1</v>
@@ -34339,7 +34339,7 @@
         <v>10</v>
       </c>
       <c r="H693">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I693">
         <v>1</v>
@@ -34377,7 +34377,7 @@
         <v>10</v>
       </c>
       <c r="H694">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I694">
         <v>1</v>
@@ -34418,7 +34418,7 @@
         <v>10</v>
       </c>
       <c r="H695">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I695">
         <v>1</v>
@@ -34459,7 +34459,7 @@
         <v>10</v>
       </c>
       <c r="H696">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I696">
         <v>1</v>
@@ -34500,7 +34500,7 @@
         <v>10</v>
       </c>
       <c r="H697">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I697">
         <v>1</v>
@@ -34541,7 +34541,7 @@
         <v>10</v>
       </c>
       <c r="H698">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I698">
         <v>1</v>
@@ -34582,7 +34582,7 @@
         <v>10</v>
       </c>
       <c r="H699">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I699">
         <v>1</v>
@@ -34623,7 +34623,7 @@
         <v>10</v>
       </c>
       <c r="H700">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I700">
         <v>1</v>
@@ -34664,7 +34664,7 @@
         <v>10</v>
       </c>
       <c r="H701">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I701">
         <v>1</v>
@@ -34705,7 +34705,7 @@
         <v>10</v>
       </c>
       <c r="H702">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I702">
         <v>1</v>
@@ -34743,7 +34743,7 @@
         <v>10</v>
       </c>
       <c r="H703">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I703">
         <v>1</v>
@@ -34781,7 +34781,7 @@
         <v>10</v>
       </c>
       <c r="H704">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I704">
         <v>1</v>
@@ -34819,7 +34819,7 @@
         <v>10</v>
       </c>
       <c r="H705">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I705">
         <v>1</v>
@@ -34860,7 +34860,7 @@
         <v>10</v>
       </c>
       <c r="H706">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I706">
         <v>1</v>
@@ -34901,7 +34901,7 @@
         <v>10</v>
       </c>
       <c r="H707">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I707">
         <v>1</v>
@@ -34939,7 +34939,7 @@
         <v>10</v>
       </c>
       <c r="H708">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I708">
         <v>1</v>
@@ -34977,7 +34977,7 @@
         <v>10</v>
       </c>
       <c r="H709">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I709">
         <v>1</v>
@@ -35018,7 +35018,7 @@
         <v>10</v>
       </c>
       <c r="H710">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I710">
         <v>1</v>
@@ -35059,7 +35059,7 @@
         <v>10</v>
       </c>
       <c r="H711">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I711">
         <v>1</v>
@@ -35097,7 +35097,7 @@
         <v>10</v>
       </c>
       <c r="H712">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I712">
         <v>1</v>
@@ -35135,7 +35135,7 @@
         <v>10</v>
       </c>
       <c r="H713">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I713">
         <v>1</v>
@@ -35176,7 +35176,7 @@
         <v>10</v>
       </c>
       <c r="H714">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I714">
         <v>1</v>
@@ -35214,7 +35214,7 @@
         <v>10</v>
       </c>
       <c r="H715">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I715">
         <v>1</v>
@@ -35255,7 +35255,7 @@
         <v>10</v>
       </c>
       <c r="H716">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I716">
         <v>1</v>
@@ -35296,7 +35296,7 @@
         <v>10</v>
       </c>
       <c r="H717">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I717">
         <v>1</v>
@@ -35334,7 +35334,7 @@
         <v>10</v>
       </c>
       <c r="H718">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I718">
         <v>1</v>
@@ -35375,7 +35375,7 @@
         <v>10</v>
       </c>
       <c r="H719">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I719">
         <v>1</v>
@@ -35416,7 +35416,7 @@
         <v>10</v>
       </c>
       <c r="H720">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I720">
         <v>1</v>
@@ -35457,7 +35457,7 @@
         <v>10</v>
       </c>
       <c r="H721">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I721">
         <v>1</v>
@@ -35498,7 +35498,7 @@
         <v>10</v>
       </c>
       <c r="H722">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I722">
         <v>1</v>
@@ -35536,7 +35536,7 @@
         <v>10</v>
       </c>
       <c r="H723">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I723">
         <v>1</v>
@@ -35574,7 +35574,7 @@
         <v>10</v>
       </c>
       <c r="H724">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I724">
         <v>1</v>
@@ -35612,7 +35612,7 @@
         <v>10</v>
       </c>
       <c r="H725">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I725">
         <v>1</v>
@@ -35653,7 +35653,7 @@
         <v>10</v>
       </c>
       <c r="H726">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I726">
         <v>1</v>
@@ -35691,7 +35691,7 @@
         <v>10</v>
       </c>
       <c r="H727">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I727">
         <v>1</v>
@@ -35729,7 +35729,7 @@
         <v>10</v>
       </c>
       <c r="H728">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I728">
         <v>1</v>
@@ -35767,7 +35767,7 @@
         <v>10</v>
       </c>
       <c r="H729">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I729">
         <v>1</v>
@@ -35805,7 +35805,7 @@
         <v>10</v>
       </c>
       <c r="H730">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I730">
         <v>1</v>
@@ -35846,7 +35846,7 @@
         <v>10</v>
       </c>
       <c r="H731">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I731">
         <v>1</v>
@@ -35887,7 +35887,7 @@
         <v>10</v>
       </c>
       <c r="H732">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I732">
         <v>1</v>
@@ -35925,7 +35925,7 @@
         <v>10</v>
       </c>
       <c r="H733">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I733">
         <v>1</v>
@@ -35966,7 +35966,7 @@
         <v>10</v>
       </c>
       <c r="H734">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I734">
         <v>1</v>
@@ -36007,7 +36007,7 @@
         <v>10</v>
       </c>
       <c r="H735">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I735">
         <v>1</v>
@@ -36048,7 +36048,7 @@
         <v>10</v>
       </c>
       <c r="H736">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I736">
         <v>1</v>
@@ -36089,7 +36089,7 @@
         <v>10</v>
       </c>
       <c r="H737">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I737">
         <v>1</v>
@@ -36130,7 +36130,7 @@
         <v>10</v>
       </c>
       <c r="H738">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I738">
         <v>1</v>
@@ -36168,7 +36168,7 @@
         <v>10</v>
       </c>
       <c r="H739">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I739">
         <v>1</v>
@@ -36209,7 +36209,7 @@
         <v>10</v>
       </c>
       <c r="H740">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I740">
         <v>1</v>
@@ -36250,7 +36250,7 @@
         <v>10</v>
       </c>
       <c r="H741">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I741">
         <v>1</v>
@@ -36288,7 +36288,7 @@
         <v>10</v>
       </c>
       <c r="H742">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I742">
         <v>1</v>
@@ -36329,7 +36329,7 @@
         <v>4</v>
       </c>
       <c r="H743">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I743">
         <v>1</v>
@@ -36370,7 +36370,7 @@
         <v>4</v>
       </c>
       <c r="H744">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I744">
         <v>1</v>
@@ -36411,7 +36411,7 @@
         <v>4</v>
       </c>
       <c r="H745">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I745">
         <v>1</v>
@@ -36452,7 +36452,7 @@
         <v>4</v>
       </c>
       <c r="H746">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I746">
         <v>1</v>
@@ -36493,7 +36493,7 @@
         <v>4</v>
       </c>
       <c r="H747">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I747">
         <v>1</v>
@@ -36534,7 +36534,7 @@
         <v>4</v>
       </c>
       <c r="H748">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I748">
         <v>1</v>
@@ -36575,7 +36575,7 @@
         <v>4</v>
       </c>
       <c r="H749">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I749">
         <v>1</v>
@@ -36616,7 +36616,7 @@
         <v>4</v>
       </c>
       <c r="H750">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I750">
         <v>1</v>
@@ -36657,7 +36657,7 @@
         <v>4</v>
       </c>
       <c r="H751">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I751">
         <v>1</v>
@@ -36698,7 +36698,7 @@
         <v>4</v>
       </c>
       <c r="H752">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I752">
         <v>1</v>
@@ -36739,7 +36739,7 @@
         <v>4</v>
       </c>
       <c r="H753">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I753">
         <v>1</v>
@@ -36780,7 +36780,7 @@
         <v>4</v>
       </c>
       <c r="H754">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I754">
         <v>1</v>
@@ -36821,7 +36821,7 @@
         <v>4</v>
       </c>
       <c r="H755">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I755">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>4</v>
       </c>
       <c r="H756">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I756">
         <v>1</v>
@@ -36903,7 +36903,7 @@
         <v>4</v>
       </c>
       <c r="H757">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I757">
         <v>1</v>
@@ -36944,7 +36944,7 @@
         <v>4</v>
       </c>
       <c r="H758">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I758">
         <v>1</v>
@@ -36985,7 +36985,7 @@
         <v>4</v>
       </c>
       <c r="H759">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I759">
         <v>1</v>
@@ -37026,7 +37026,7 @@
         <v>4</v>
       </c>
       <c r="H760">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I760">
         <v>1</v>
@@ -37067,7 +37067,7 @@
         <v>4</v>
       </c>
       <c r="H761">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I761">
         <v>1</v>
@@ -37108,7 +37108,7 @@
         <v>4</v>
       </c>
       <c r="H762">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I762">
         <v>1</v>
@@ -37149,7 +37149,7 @@
         <v>4</v>
       </c>
       <c r="H763">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I763">
         <v>1</v>
@@ -37190,7 +37190,7 @@
         <v>4</v>
       </c>
       <c r="H764">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I764">
         <v>1</v>
@@ -37231,7 +37231,7 @@
         <v>2</v>
       </c>
       <c r="H765">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I765">
         <v>1</v>
@@ -37272,7 +37272,7 @@
         <v>2</v>
       </c>
       <c r="H766">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I766">
         <v>1</v>
@@ -37313,7 +37313,7 @@
         <v>2</v>
       </c>
       <c r="H767">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I767">
         <v>1</v>
@@ -37354,7 +37354,7 @@
         <v>2</v>
       </c>
       <c r="H768">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I768">
         <v>1</v>
@@ -37395,7 +37395,7 @@
         <v>2</v>
       </c>
       <c r="H769">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I769">
         <v>1</v>
@@ -37436,7 +37436,7 @@
         <v>2</v>
       </c>
       <c r="H770">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I770">
         <v>1</v>
@@ -37477,7 +37477,7 @@
         <v>2</v>
       </c>
       <c r="H771">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I771">
         <v>1</v>
@@ -37518,7 +37518,7 @@
         <v>2</v>
       </c>
       <c r="H772">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I772">
         <v>1</v>
@@ -37559,7 +37559,7 @@
         <v>2</v>
       </c>
       <c r="H773">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I773">
         <v>1</v>
@@ -37600,7 +37600,7 @@
         <v>2</v>
       </c>
       <c r="H774">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I774">
         <v>1</v>
@@ -37641,7 +37641,7 @@
         <v>5</v>
       </c>
       <c r="H775">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I775">
         <v>1</v>
@@ -37682,7 +37682,7 @@
         <v>5</v>
       </c>
       <c r="H776">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I776">
         <v>1</v>
@@ -37723,7 +37723,7 @@
         <v>5</v>
       </c>
       <c r="H777">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I777">
         <v>1</v>
@@ -37764,7 +37764,7 @@
         <v>5</v>
       </c>
       <c r="H778">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I778">
         <v>1</v>
@@ -37805,7 +37805,7 @@
         <v>5</v>
       </c>
       <c r="H779">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I779">
         <v>1</v>
@@ -37846,7 +37846,7 @@
         <v>5</v>
       </c>
       <c r="H780">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I780">
         <v>1</v>
@@ -37887,7 +37887,7 @@
         <v>5</v>
       </c>
       <c r="H781">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I781">
         <v>1</v>
@@ -37928,7 +37928,7 @@
         <v>5</v>
       </c>
       <c r="H782">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I782">
         <v>1</v>
@@ -37969,7 +37969,7 @@
         <v>5</v>
       </c>
       <c r="H783">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I783">
         <v>1</v>
@@ -38010,7 +38010,7 @@
         <v>5</v>
       </c>
       <c r="H784">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I784">
         <v>1</v>
@@ -38051,7 +38051,7 @@
         <v>5</v>
       </c>
       <c r="H785">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I785">
         <v>1</v>
@@ -38092,7 +38092,7 @@
         <v>5</v>
       </c>
       <c r="H786">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I786">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         <v>5</v>
       </c>
       <c r="H787">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I787">
         <v>1</v>
@@ -38174,7 +38174,7 @@
         <v>5</v>
       </c>
       <c r="H788">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I788">
         <v>1</v>
@@ -38215,7 +38215,7 @@
         <v>5</v>
       </c>
       <c r="H789">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I789">
         <v>1</v>
@@ -38256,7 +38256,7 @@
         <v>5</v>
       </c>
       <c r="H790">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I790">
         <v>1</v>
@@ -38297,7 +38297,7 @@
         <v>5</v>
       </c>
       <c r="H791">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I791">
         <v>1</v>
@@ -38871,7 +38871,7 @@
         <v>10</v>
       </c>
       <c r="H805">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I805">
         <v>1</v>
@@ -38912,7 +38912,7 @@
         <v>10</v>
       </c>
       <c r="H806">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I806">
         <v>1</v>
@@ -38953,7 +38953,7 @@
         <v>10</v>
       </c>
       <c r="H807">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I807">
         <v>1</v>
@@ -38994,7 +38994,7 @@
         <v>10</v>
       </c>
       <c r="H808">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I808">
         <v>1</v>
@@ -39035,7 +39035,7 @@
         <v>10</v>
       </c>
       <c r="H809">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I809">
         <v>1</v>
@@ -39076,7 +39076,7 @@
         <v>10</v>
       </c>
       <c r="H810">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I810">
         <v>1</v>
@@ -39117,7 +39117,7 @@
         <v>10</v>
       </c>
       <c r="H811">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I811">
         <v>1</v>
@@ -39158,7 +39158,7 @@
         <v>10</v>
       </c>
       <c r="H812">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I812">
         <v>1</v>
@@ -39199,7 +39199,7 @@
         <v>10</v>
       </c>
       <c r="H813">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I813">
         <v>1</v>
@@ -39240,7 +39240,7 @@
         <v>10</v>
       </c>
       <c r="H814">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I814">
         <v>1</v>
@@ -39281,7 +39281,7 @@
         <v>10</v>
       </c>
       <c r="H815">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I815">
         <v>1</v>
@@ -39322,7 +39322,7 @@
         <v>10</v>
       </c>
       <c r="H816">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I816">
         <v>1</v>
@@ -39363,7 +39363,7 @@
         <v>10</v>
       </c>
       <c r="H817">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I817">
         <v>1</v>
@@ -39404,7 +39404,7 @@
         <v>6</v>
       </c>
       <c r="H818">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I818">
         <v>1</v>
@@ -39445,7 +39445,7 @@
         <v>6</v>
       </c>
       <c r="H819">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I819">
         <v>1</v>
@@ -39486,7 +39486,7 @@
         <v>6</v>
       </c>
       <c r="H820">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I820">
         <v>1</v>
@@ -39527,7 +39527,7 @@
         <v>6</v>
       </c>
       <c r="H821">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I821">
         <v>1</v>
@@ -39568,7 +39568,7 @@
         <v>6</v>
       </c>
       <c r="H822">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I822">
         <v>1</v>
@@ -39609,7 +39609,7 @@
         <v>6</v>
       </c>
       <c r="H823">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I823">
         <v>1</v>
@@ -39650,7 +39650,7 @@
         <v>6</v>
       </c>
       <c r="H824">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I824">
         <v>1</v>
@@ -39691,7 +39691,7 @@
         <v>6</v>
       </c>
       <c r="H825">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I825">
         <v>1</v>
@@ -39732,7 +39732,7 @@
         <v>6</v>
       </c>
       <c r="H826">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I826">
         <v>1</v>
@@ -39773,7 +39773,7 @@
         <v>6</v>
       </c>
       <c r="H827">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I827">
         <v>1</v>
@@ -39814,7 +39814,7 @@
         <v>6</v>
       </c>
       <c r="H828">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I828">
         <v>1</v>
@@ -39855,7 +39855,7 @@
         <v>3</v>
       </c>
       <c r="H829">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I829">
         <v>1</v>
@@ -39896,7 +39896,7 @@
         <v>3</v>
       </c>
       <c r="H830">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I830">
         <v>1</v>
@@ -39937,7 +39937,7 @@
         <v>3</v>
       </c>
       <c r="H831">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I831">
         <v>1</v>
@@ -39978,7 +39978,7 @@
         <v>3</v>
       </c>
       <c r="H832">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I832">
         <v>1</v>
@@ -40019,7 +40019,7 @@
         <v>3</v>
       </c>
       <c r="H833">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I833">
         <v>1</v>
@@ -40060,7 +40060,7 @@
         <v>3</v>
       </c>
       <c r="H834">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I834">
         <v>1</v>
@@ -40101,7 +40101,7 @@
         <v>3</v>
       </c>
       <c r="H835">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I835">
         <v>1</v>
@@ -40142,7 +40142,7 @@
         <v>3</v>
       </c>
       <c r="H836">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I836">
         <v>1</v>
@@ -40183,7 +40183,7 @@
         <v>3</v>
       </c>
       <c r="H837">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I837">
         <v>1</v>
@@ -40224,7 +40224,7 @@
         <v>6</v>
       </c>
       <c r="H838">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I838">
         <v>1</v>
@@ -40265,7 +40265,7 @@
         <v>6</v>
       </c>
       <c r="H839">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I839">
         <v>1</v>
@@ -40306,7 +40306,7 @@
         <v>6</v>
       </c>
       <c r="H840">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I840">
         <v>1</v>
@@ -40347,7 +40347,7 @@
         <v>6</v>
       </c>
       <c r="H841">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I841">
         <v>1</v>
@@ -40388,7 +40388,7 @@
         <v>6</v>
       </c>
       <c r="H842">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -40429,7 +40429,7 @@
         <v>6</v>
       </c>
       <c r="H843">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I843">
         <v>1</v>
@@ -40470,7 +40470,7 @@
         <v>9</v>
       </c>
       <c r="H844">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I844">
         <v>1</v>
@@ -40511,7 +40511,7 @@
         <v>9</v>
       </c>
       <c r="H845">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I845">
         <v>1</v>
@@ -40552,7 +40552,7 @@
         <v>9</v>
       </c>
       <c r="H846">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I846">
         <v>1</v>
@@ -40593,7 +40593,7 @@
         <v>8</v>
       </c>
       <c r="H847">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I847">
         <v>1</v>
@@ -40634,7 +40634,7 @@
         <v>8</v>
       </c>
       <c r="H848">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I848">
         <v>1</v>
@@ -40675,7 +40675,7 @@
         <v>21</v>
       </c>
       <c r="H849">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I849">
         <v>1</v>
@@ -40716,7 +40716,7 @@
         <v>21</v>
       </c>
       <c r="H850">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I850">
         <v>1</v>
@@ -40757,7 +40757,7 @@
         <v>21</v>
       </c>
       <c r="H851">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I851">
         <v>1</v>
@@ -40798,7 +40798,7 @@
         <v>21</v>
       </c>
       <c r="H852">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I852">
         <v>1</v>
@@ -40839,7 +40839,7 @@
         <v>21</v>
       </c>
       <c r="H853">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I853">
         <v>1</v>
@@ -40880,7 +40880,7 @@
         <v>21</v>
       </c>
       <c r="H854">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I854">
         <v>1</v>
@@ -40921,7 +40921,7 @@
         <v>21</v>
       </c>
       <c r="H855">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I855">
         <v>1</v>
@@ -40962,7 +40962,7 @@
         <v>21</v>
       </c>
       <c r="H856">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I856">
         <v>1</v>
@@ -41003,7 +41003,7 @@
         <v>21</v>
       </c>
       <c r="H857">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I857">
         <v>1</v>
@@ -41044,7 +41044,7 @@
         <v>21</v>
       </c>
       <c r="H858">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I858">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         <v>21</v>
       </c>
       <c r="H859">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I859">
         <v>1</v>
@@ -41126,7 +41126,7 @@
         <v>21</v>
       </c>
       <c r="H860">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I860">
         <v>1</v>
@@ -41167,7 +41167,7 @@
         <v>21</v>
       </c>
       <c r="H861">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I861">
         <v>1</v>
@@ -41208,7 +41208,7 @@
         <v>21</v>
       </c>
       <c r="H862">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I862">
         <v>1</v>
@@ -41249,7 +41249,7 @@
         <v>21</v>
       </c>
       <c r="H863">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I863">
         <v>1</v>
@@ -41290,7 +41290,7 @@
         <v>21</v>
       </c>
       <c r="H864">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I864">
         <v>1</v>
@@ -41331,7 +41331,7 @@
         <v>21</v>
       </c>
       <c r="H865">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I865">
         <v>1</v>
@@ -41372,7 +41372,7 @@
         <v>21</v>
       </c>
       <c r="H866">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I866">
         <v>1</v>
@@ -41413,7 +41413,7 @@
         <v>21</v>
       </c>
       <c r="H867">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I867">
         <v>1</v>
@@ -41454,7 +41454,7 @@
         <v>21</v>
       </c>
       <c r="H868">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I868">
         <v>1</v>
@@ -41495,7 +41495,7 @@
         <v>21</v>
       </c>
       <c r="H869">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I869">
         <v>1</v>
@@ -41536,7 +41536,7 @@
         <v>21</v>
       </c>
       <c r="H870">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I870">
         <v>1</v>
@@ -41577,7 +41577,7 @@
         <v>21</v>
       </c>
       <c r="H871">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I871">
         <v>1</v>
@@ -41618,7 +41618,7 @@
         <v>21</v>
       </c>
       <c r="H872">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I872">
         <v>1</v>
@@ -41659,7 +41659,7 @@
         <v>21</v>
       </c>
       <c r="H873">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I873">
         <v>1</v>
@@ -41700,7 +41700,7 @@
         <v>21</v>
       </c>
       <c r="H874">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I874">
         <v>1</v>
@@ -41741,7 +41741,7 @@
         <v>21</v>
       </c>
       <c r="H875">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I875">
         <v>1</v>
@@ -41782,7 +41782,7 @@
         <v>21</v>
       </c>
       <c r="H876">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I876">
         <v>1</v>
@@ -41823,7 +41823,7 @@
         <v>21</v>
       </c>
       <c r="H877">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I877">
         <v>1</v>
@@ -41864,7 +41864,7 @@
         <v>21</v>
       </c>
       <c r="H878">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I878">
         <v>1</v>
@@ -41905,7 +41905,7 @@
         <v>21</v>
       </c>
       <c r="H879">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I879">
         <v>1</v>
@@ -41946,7 +41946,7 @@
         <v>21</v>
       </c>
       <c r="H880">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I880">
         <v>1</v>
@@ -41987,7 +41987,7 @@
         <v>21</v>
       </c>
       <c r="H881">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I881">
         <v>1</v>
@@ -42028,7 +42028,7 @@
         <v>21</v>
       </c>
       <c r="H882">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I882">
         <v>1</v>
@@ -42069,7 +42069,7 @@
         <v>21</v>
       </c>
       <c r="H883">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I883">
         <v>1</v>
@@ -42110,7 +42110,7 @@
         <v>21</v>
       </c>
       <c r="H884">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I884">
         <v>1</v>
@@ -42151,7 +42151,7 @@
         <v>21</v>
       </c>
       <c r="H885">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I885">
         <v>1</v>
@@ -42192,7 +42192,7 @@
         <v>21</v>
       </c>
       <c r="H886">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I886">
         <v>1</v>
@@ -42233,7 +42233,7 @@
         <v>21</v>
       </c>
       <c r="H887">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I887">
         <v>1</v>
@@ -42274,7 +42274,7 @@
         <v>21</v>
       </c>
       <c r="H888">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I888">
         <v>1</v>
@@ -42315,7 +42315,7 @@
         <v>21</v>
       </c>
       <c r="H889">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I889">
         <v>1</v>
@@ -42356,7 +42356,7 @@
         <v>21</v>
       </c>
       <c r="H890">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I890">
         <v>1</v>
@@ -42397,7 +42397,7 @@
         <v>21</v>
       </c>
       <c r="H891">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I891">
         <v>1</v>
@@ -42438,7 +42438,7 @@
         <v>21</v>
       </c>
       <c r="H892">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I892">
         <v>1</v>
@@ -42479,7 +42479,7 @@
         <v>21</v>
       </c>
       <c r="H893">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I893">
         <v>1</v>
@@ -42520,7 +42520,7 @@
         <v>21</v>
       </c>
       <c r="H894">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I894">
         <v>1</v>
@@ -42561,7 +42561,7 @@
         <v>21</v>
       </c>
       <c r="H895">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I895">
         <v>1</v>
@@ -42602,7 +42602,7 @@
         <v>21</v>
       </c>
       <c r="H896">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I896">
         <v>1</v>
@@ -42643,7 +42643,7 @@
         <v>21</v>
       </c>
       <c r="H897">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I897">
         <v>1</v>
@@ -42684,7 +42684,7 @@
         <v>21</v>
       </c>
       <c r="H898">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I898">
         <v>1</v>
@@ -42725,7 +42725,7 @@
         <v>21</v>
       </c>
       <c r="H899">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I899">
         <v>1</v>
@@ -42766,7 +42766,7 @@
         <v>21</v>
       </c>
       <c r="H900">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I900">
         <v>1</v>
@@ -42807,7 +42807,7 @@
         <v>21</v>
       </c>
       <c r="H901">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I901">
         <v>1</v>
@@ -42848,7 +42848,7 @@
         <v>21</v>
       </c>
       <c r="H902">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I902">
         <v>1</v>
@@ -42889,7 +42889,7 @@
         <v>21</v>
       </c>
       <c r="H903">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I903">
         <v>1</v>
@@ -42930,7 +42930,7 @@
         <v>21</v>
       </c>
       <c r="H904">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I904">
         <v>1</v>
@@ -42971,7 +42971,7 @@
         <v>21</v>
       </c>
       <c r="H905">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I905">
         <v>1</v>
@@ -43012,7 +43012,7 @@
         <v>21</v>
       </c>
       <c r="H906">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I906">
         <v>1</v>
@@ -43053,7 +43053,7 @@
         <v>21</v>
       </c>
       <c r="H907">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I907">
         <v>1</v>
@@ -43094,7 +43094,7 @@
         <v>21</v>
       </c>
       <c r="H908">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I908">
         <v>1</v>
@@ -43135,7 +43135,7 @@
         <v>21</v>
       </c>
       <c r="H909">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I909">
         <v>1</v>
@@ -43176,7 +43176,7 @@
         <v>21</v>
       </c>
       <c r="H910">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I910">
         <v>1</v>
@@ -43217,7 +43217,7 @@
         <v>21</v>
       </c>
       <c r="H911">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I911">
         <v>1</v>
@@ -43258,7 +43258,7 @@
         <v>21</v>
       </c>
       <c r="H912">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I912">
         <v>1</v>
@@ -43299,7 +43299,7 @@
         <v>21</v>
       </c>
       <c r="H913">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I913">
         <v>1</v>
@@ -43340,7 +43340,7 @@
         <v>21</v>
       </c>
       <c r="H914">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -43381,7 +43381,7 @@
         <v>21</v>
       </c>
       <c r="H915">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I915">
         <v>1</v>
@@ -43422,7 +43422,7 @@
         <v>21</v>
       </c>
       <c r="H916">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I916">
         <v>1</v>
@@ -43463,7 +43463,7 @@
         <v>21</v>
       </c>
       <c r="H917">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I917">
         <v>1</v>
@@ -43504,7 +43504,7 @@
         <v>21</v>
       </c>
       <c r="H918">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I918">
         <v>1</v>
@@ -43545,7 +43545,7 @@
         <v>21</v>
       </c>
       <c r="H919">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I919">
         <v>1</v>
@@ -43586,7 +43586,7 @@
         <v>21</v>
       </c>
       <c r="H920">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I920">
         <v>1</v>
@@ -43627,7 +43627,7 @@
         <v>21</v>
       </c>
       <c r="H921">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I921">
         <v>1</v>
@@ -43668,7 +43668,7 @@
         <v>21</v>
       </c>
       <c r="H922">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I922">
         <v>1</v>
@@ -43709,7 +43709,7 @@
         <v>21</v>
       </c>
       <c r="H923">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I923">
         <v>1</v>
@@ -43750,7 +43750,7 @@
         <v>21</v>
       </c>
       <c r="H924">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I924">
         <v>1</v>
@@ -43791,7 +43791,7 @@
         <v>21</v>
       </c>
       <c r="H925">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I925">
         <v>1</v>
@@ -43832,7 +43832,7 @@
         <v>21</v>
       </c>
       <c r="H926">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I926">
         <v>1</v>
@@ -43873,7 +43873,7 @@
         <v>21</v>
       </c>
       <c r="H927">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I927">
         <v>1</v>
@@ -43914,7 +43914,7 @@
         <v>21</v>
       </c>
       <c r="H928">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I928">
         <v>1</v>
@@ -43955,7 +43955,7 @@
         <v>21</v>
       </c>
       <c r="H929">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I929">
         <v>1</v>
@@ -43996,7 +43996,7 @@
         <v>21</v>
       </c>
       <c r="H930">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I930">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         <v>21</v>
       </c>
       <c r="H931">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I931">
         <v>1</v>
@@ -44078,7 +44078,7 @@
         <v>21</v>
       </c>
       <c r="H932">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I932">
         <v>1</v>
@@ -44119,7 +44119,7 @@
         <v>21</v>
       </c>
       <c r="H933">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I933">
         <v>1</v>
@@ -44160,7 +44160,7 @@
         <v>21</v>
       </c>
       <c r="H934">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I934">
         <v>1</v>
@@ -44201,7 +44201,7 @@
         <v>21</v>
       </c>
       <c r="H935">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I935">
         <v>1</v>
@@ -44242,7 +44242,7 @@
         <v>21</v>
       </c>
       <c r="H936">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I936">
         <v>1</v>
@@ -44283,7 +44283,7 @@
         <v>21</v>
       </c>
       <c r="H937">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I937">
         <v>1</v>
@@ -44324,7 +44324,7 @@
         <v>21</v>
       </c>
       <c r="H938">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I938">
         <v>1</v>
@@ -44365,7 +44365,7 @@
         <v>21</v>
       </c>
       <c r="H939">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I939">
         <v>1</v>
@@ -44406,7 +44406,7 @@
         <v>21</v>
       </c>
       <c r="H940">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I940">
         <v>1</v>
@@ -44447,7 +44447,7 @@
         <v>21</v>
       </c>
       <c r="H941">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I941">
         <v>1</v>
@@ -44488,7 +44488,7 @@
         <v>21</v>
       </c>
       <c r="H942">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I942">
         <v>1</v>
@@ -44529,7 +44529,7 @@
         <v>21</v>
       </c>
       <c r="H943">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I943">
         <v>1</v>
@@ -44570,7 +44570,7 @@
         <v>21</v>
       </c>
       <c r="H944">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I944">
         <v>1</v>
@@ -44611,7 +44611,7 @@
         <v>21</v>
       </c>
       <c r="H945">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I945">
         <v>1</v>
@@ -44652,7 +44652,7 @@
         <v>21</v>
       </c>
       <c r="H946">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I946">
         <v>1</v>
@@ -44693,7 +44693,7 @@
         <v>21</v>
       </c>
       <c r="H947">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I947">
         <v>1</v>
@@ -44734,7 +44734,7 @@
         <v>21</v>
       </c>
       <c r="H948">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I948">
         <v>1</v>
@@ -44775,7 +44775,7 @@
         <v>21</v>
       </c>
       <c r="H949">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I949">
         <v>1</v>
@@ -44816,7 +44816,7 @@
         <v>21</v>
       </c>
       <c r="H950">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I950">
         <v>1</v>
@@ -44857,7 +44857,7 @@
         <v>21</v>
       </c>
       <c r="H951">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I951">
         <v>1</v>
@@ -44898,7 +44898,7 @@
         <v>21</v>
       </c>
       <c r="H952">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I952">
         <v>1</v>
@@ -44939,7 +44939,7 @@
         <v>21</v>
       </c>
       <c r="H953">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I953">
         <v>1</v>
@@ -44980,7 +44980,7 @@
         <v>21</v>
       </c>
       <c r="H954">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I954">
         <v>1</v>
@@ -45021,7 +45021,7 @@
         <v>21</v>
       </c>
       <c r="H955">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I955">
         <v>1</v>
@@ -45062,7 +45062,7 @@
         <v>21</v>
       </c>
       <c r="H956">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I956">
         <v>1</v>
@@ -45103,7 +45103,7 @@
         <v>21</v>
       </c>
       <c r="H957">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I957">
         <v>1</v>
@@ -45144,7 +45144,7 @@
         <v>21</v>
       </c>
       <c r="H958">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I958">
         <v>1</v>
@@ -45185,7 +45185,7 @@
         <v>21</v>
       </c>
       <c r="H959">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I959">
         <v>1</v>
@@ -45226,7 +45226,7 @@
         <v>21</v>
       </c>
       <c r="H960">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I960">
         <v>1</v>
@@ -45267,7 +45267,7 @@
         <v>21</v>
       </c>
       <c r="H961">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I961">
         <v>1</v>
@@ -45308,7 +45308,7 @@
         <v>21</v>
       </c>
       <c r="H962">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I962">
         <v>1</v>
@@ -45349,7 +45349,7 @@
         <v>21</v>
       </c>
       <c r="H963">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I963">
         <v>1</v>
@@ -45390,7 +45390,7 @@
         <v>21</v>
       </c>
       <c r="H964">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I964">
         <v>1</v>
@@ -45431,7 +45431,7 @@
         <v>21</v>
       </c>
       <c r="H965">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I965">
         <v>1</v>
@@ -45472,7 +45472,7 @@
         <v>21</v>
       </c>
       <c r="H966">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I966">
         <v>1</v>
@@ -45513,7 +45513,7 @@
         <v>21</v>
       </c>
       <c r="H967">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I967">
         <v>1</v>
@@ -45554,7 +45554,7 @@
         <v>21</v>
       </c>
       <c r="H968">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I968">
         <v>1</v>
@@ -45595,7 +45595,7 @@
         <v>21</v>
       </c>
       <c r="H969">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I969">
         <v>1</v>
@@ -45636,7 +45636,7 @@
         <v>21</v>
       </c>
       <c r="H970">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I970">
         <v>1</v>
@@ -45677,7 +45677,7 @@
         <v>21</v>
       </c>
       <c r="H971">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I971">
         <v>1</v>
@@ -45718,7 +45718,7 @@
         <v>21</v>
       </c>
       <c r="H972">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I972">
         <v>1</v>
@@ -45759,7 +45759,7 @@
         <v>21</v>
       </c>
       <c r="H973">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I973">
         <v>1</v>
@@ -45800,7 +45800,7 @@
         <v>21</v>
       </c>
       <c r="H974">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I974">
         <v>1</v>
@@ -45841,7 +45841,7 @@
         <v>21</v>
       </c>
       <c r="H975">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I975">
         <v>1</v>
@@ -45882,7 +45882,7 @@
         <v>21</v>
       </c>
       <c r="H976">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I976">
         <v>1</v>
@@ -45923,7 +45923,7 @@
         <v>21</v>
       </c>
       <c r="H977">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I977">
         <v>1</v>
@@ -45964,7 +45964,7 @@
         <v>21</v>
       </c>
       <c r="H978">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I978">
         <v>1</v>
@@ -46005,7 +46005,7 @@
         <v>21</v>
       </c>
       <c r="H979">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I979">
         <v>1</v>
@@ -46046,7 +46046,7 @@
         <v>21</v>
       </c>
       <c r="H980">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I980">
         <v>1</v>
@@ -46087,7 +46087,7 @@
         <v>21</v>
       </c>
       <c r="H981">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I981">
         <v>1</v>
@@ -46128,7 +46128,7 @@
         <v>21</v>
       </c>
       <c r="H982">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I982">
         <v>1</v>
@@ -46169,7 +46169,7 @@
         <v>21</v>
       </c>
       <c r="H983">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I983">
         <v>1</v>
@@ -46210,7 +46210,7 @@
         <v>21</v>
       </c>
       <c r="H984">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I984">
         <v>1</v>
@@ -46251,7 +46251,7 @@
         <v>21</v>
       </c>
       <c r="H985">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I985">
         <v>1</v>
@@ -46292,7 +46292,7 @@
         <v>21</v>
       </c>
       <c r="H986">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I986">
         <v>1</v>
@@ -46333,7 +46333,7 @@
         <v>21</v>
       </c>
       <c r="H987">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I987">
         <v>1</v>
@@ -46374,7 +46374,7 @@
         <v>21</v>
       </c>
       <c r="H988">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I988">
         <v>1</v>
@@ -46415,7 +46415,7 @@
         <v>21</v>
       </c>
       <c r="H989">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I989">
         <v>1</v>
@@ -46456,7 +46456,7 @@
         <v>21</v>
       </c>
       <c r="H990">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I990">
         <v>1</v>
@@ -46497,7 +46497,7 @@
         <v>21</v>
       </c>
       <c r="H991">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I991">
         <v>1</v>
@@ -46620,7 +46620,7 @@
         <v>6</v>
       </c>
       <c r="H994">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I994">
         <v>1</v>
@@ -46661,7 +46661,7 @@
         <v>6</v>
       </c>
       <c r="H995">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I995">
         <v>1</v>
@@ -46702,7 +46702,7 @@
         <v>10</v>
       </c>
       <c r="H996">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I996">
         <v>1</v>
@@ -46743,7 +46743,7 @@
         <v>4</v>
       </c>
       <c r="H997">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I997">
         <v>1</v>
@@ -46784,7 +46784,7 @@
         <v>4</v>
       </c>
       <c r="H998">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I998">
         <v>1</v>
@@ -46825,7 +46825,7 @@
         <v>4</v>
       </c>
       <c r="H999">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I999">
         <v>1</v>
@@ -46866,7 +46866,7 @@
         <v>4</v>
       </c>
       <c r="H1000">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1000">
         <v>1</v>
@@ -46907,7 +46907,7 @@
         <v>4</v>
       </c>
       <c r="H1001">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1001">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         <v>4</v>
       </c>
       <c r="H1003">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1003">
         <v>1</v>
@@ -47030,7 +47030,7 @@
         <v>4</v>
       </c>
       <c r="H1004">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1004">
         <v>1</v>
@@ -47071,7 +47071,7 @@
         <v>6</v>
       </c>
       <c r="H1005">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I1005">
         <v>1</v>
@@ -47112,7 +47112,7 @@
         <v>4</v>
       </c>
       <c r="H1006">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1006">
         <v>1</v>
@@ -47235,7 +47235,7 @@
         <v>4</v>
       </c>
       <c r="H1009">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1009">
         <v>1</v>
@@ -47317,7 +47317,7 @@
         <v>10</v>
       </c>
       <c r="H1011">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1011">
         <v>1</v>
@@ -47358,7 +47358,7 @@
         <v>10</v>
       </c>
       <c r="H1012">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1012">
         <v>1</v>
@@ -47399,7 +47399,7 @@
         <v>2</v>
       </c>
       <c r="H1013">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1013">
         <v>1</v>
@@ -47440,7 +47440,7 @@
         <v>3</v>
       </c>
       <c r="H1014">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I1014">
         <v>1</v>
@@ -47481,7 +47481,7 @@
         <v>21</v>
       </c>
       <c r="H1015">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1015">
         <v>1</v>
@@ -47522,7 +47522,7 @@
         <v>21</v>
       </c>
       <c r="H1016">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1016">
         <v>1</v>
@@ -47563,7 +47563,7 @@
         <v>10</v>
       </c>
       <c r="H1017">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1017">
         <v>1</v>
@@ -47604,7 +47604,7 @@
         <v>2</v>
       </c>
       <c r="H1018">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1018">
         <v>1</v>
@@ -47645,7 +47645,7 @@
         <v>10</v>
       </c>
       <c r="H1019">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1019">
         <v>1</v>
@@ -47686,7 +47686,7 @@
         <v>10</v>
       </c>
       <c r="H1020">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1020">
         <v>1</v>
@@ -47727,7 +47727,7 @@
         <v>2</v>
       </c>
       <c r="H1021">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1021">
         <v>1</v>
@@ -47768,7 +47768,7 @@
         <v>9</v>
       </c>
       <c r="H1022">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I1022">
         <v>1</v>
@@ -47809,7 +47809,7 @@
         <v>10</v>
       </c>
       <c r="H1023">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1023">
         <v>1</v>
@@ -47850,7 +47850,7 @@
         <v>10</v>
       </c>
       <c r="H1024">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1024">
         <v>1</v>
@@ -47891,7 +47891,7 @@
         <v>4</v>
       </c>
       <c r="H1025">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1025">
         <v>1</v>
@@ -47932,7 +47932,7 @@
         <v>4</v>
       </c>
       <c r="H1026">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1026">
         <v>1</v>
@@ -47973,7 +47973,7 @@
         <v>4</v>
       </c>
       <c r="H1027">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1027">
         <v>1</v>
@@ -48014,7 +48014,7 @@
         <v>8</v>
       </c>
       <c r="H1028">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1028">
         <v>1</v>
@@ -48055,7 +48055,7 @@
         <v>8</v>
       </c>
       <c r="H1029">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1029">
         <v>1</v>
@@ -48260,7 +48260,7 @@
         <v>9</v>
       </c>
       <c r="H1034">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I1034">
         <v>1</v>
@@ -48342,7 +48342,7 @@
         <v>10</v>
       </c>
       <c r="H1036">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1036">
         <v>1</v>
@@ -48383,7 +48383,7 @@
         <v>2</v>
       </c>
       <c r="H1037">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1037">
         <v>1</v>
@@ -48424,7 +48424,7 @@
         <v>21</v>
       </c>
       <c r="H1038">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1038">
         <v>1</v>
@@ -48465,7 +48465,7 @@
         <v>10</v>
       </c>
       <c r="H1039">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1039">
         <v>1</v>
@@ -48506,7 +48506,7 @@
         <v>21</v>
       </c>
       <c r="H1040">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1040">
         <v>1</v>
@@ -48547,7 +48547,7 @@
         <v>4</v>
       </c>
       <c r="H1041">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1041">
         <v>1</v>
@@ -48588,7 +48588,7 @@
         <v>5</v>
       </c>
       <c r="H1042">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I1042">
         <v>1</v>
